--- a/data/insert_data.xlsx
+++ b/data/insert_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kongh\Desktop\DATN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4E329-A019-427A-B081-456E977D28F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C38970-DD1C-4EF6-91DE-2DBDFA89DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D981FB0-44E2-41B7-9F67-DB59F3D45F24}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/insert_data.xlsx
+++ b/data/insert_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kongh\Desktop\DATN\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMWORKING\Final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C38970-DD1C-4EF6-91DE-2DBDFA89DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A4A5A-F60D-44EE-9B94-89F9170AAD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D981FB0-44E2-41B7-9F67-DB59F3D45F24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D981FB0-44E2-41B7-9F67-DB59F3D45F24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>student_id</t>
   </si>
@@ -75,6 +75,174 @@
   </si>
   <si>
     <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Phạm Hồ Đăng Huy</t>
+  </si>
+  <si>
+    <t>4 Dương Văn Dương</t>
+  </si>
+  <si>
+    <t>Lê Hồng Dũng</t>
+  </si>
+  <si>
+    <t>184 XYZ Road</t>
+  </si>
+  <si>
+    <t>Đặng Văn An</t>
+  </si>
+  <si>
+    <t>24 XYZ Road</t>
+  </si>
+  <si>
+    <t>Đặng Minh Dũng</t>
+  </si>
+  <si>
+    <t>45 XYZ Road</t>
+  </si>
+  <si>
+    <t>Trần Minh Linh</t>
+  </si>
+  <si>
+    <t>115 XYZ Road</t>
+  </si>
+  <si>
+    <t>Đặng Thị Linh</t>
+  </si>
+  <si>
+    <t>182 XYZ Road</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Khánh</t>
+  </si>
+  <si>
+    <t>18 XYZ Road</t>
+  </si>
+  <si>
+    <t>Nguyễn Thuỳ Dũng</t>
+  </si>
+  <si>
+    <t>130 XYZ Road</t>
+  </si>
+  <si>
+    <t>Phạm Bảo Linh</t>
+  </si>
+  <si>
+    <t>84 XYZ Road</t>
+  </si>
+  <si>
+    <t>Hoàng Văn An</t>
+  </si>
+  <si>
+    <t>193 XYZ Road</t>
+  </si>
+  <si>
+    <t>Võ Văn Linh</t>
+  </si>
+  <si>
+    <t>150 XYZ Road</t>
+  </si>
+  <si>
+    <t>Lê Hữu Bình</t>
+  </si>
+  <si>
+    <t>140 XYZ Road</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị An</t>
+  </si>
+  <si>
+    <t>194 XYZ Road</t>
+  </si>
+  <si>
+    <t>Đặng Bảo Tùng</t>
+  </si>
+  <si>
+    <t>165 XYZ Road</t>
+  </si>
+  <si>
+    <t>Phạm Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>43 XYZ Road</t>
+  </si>
+  <si>
+    <t>Phạm Tuấn Chi</t>
+  </si>
+  <si>
+    <t>55 XYZ Road</t>
+  </si>
+  <si>
+    <t>62 XYZ Road</t>
+  </si>
+  <si>
+    <t>Lê Hồng Linh</t>
+  </si>
+  <si>
+    <t>27 XYZ Road</t>
+  </si>
+  <si>
+    <t>Trần Hữu Khánh</t>
+  </si>
+  <si>
+    <t>171 XYZ Road</t>
+  </si>
+  <si>
+    <t>Nguyễn Thuỳ Chi</t>
+  </si>
+  <si>
+    <t>110 XYZ Road</t>
+  </si>
+  <si>
+    <t>Trần Bảo Linh</t>
+  </si>
+  <si>
+    <t>77 XYZ Road</t>
+  </si>
+  <si>
+    <t>Võ Hồng Dũng</t>
+  </si>
+  <si>
+    <t>58 XYZ Road</t>
+  </si>
+  <si>
+    <t>Hoàng Bảo Hạnh</t>
+  </si>
+  <si>
+    <t>180 XYZ Road</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Linh</t>
+  </si>
+  <si>
+    <t>151 XYZ Road</t>
+  </si>
+  <si>
+    <t>Lê Văn Tùng</t>
+  </si>
+  <si>
+    <t>15 XYZ Road</t>
+  </si>
+  <si>
+    <t>Phạm Thuỳ Dũng</t>
+  </si>
+  <si>
+    <t>48 XYZ Road</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Linh</t>
+  </si>
+  <si>
+    <t>116 XYZ Road</t>
+  </si>
+  <si>
+    <t>79 XYZ Road</t>
+  </si>
+  <si>
+    <t>Đặng Thuỳ Dũng</t>
+  </si>
+  <si>
+    <t>86 XYZ Road</t>
   </si>
 </sst>
 </file>
@@ -118,12 +286,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,26 +629,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282D114-684C-4F72-A7EC-A69D6280CB00}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2001215836</v>
       </c>
@@ -527,6 +698,729 @@
       </c>
       <c r="I2" s="2">
         <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001215828</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2001215992</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2001215821</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2001215898</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2001215867</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2001215852</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2001215822</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2001215903</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2001215943</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2001215811</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2001215961</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2001215911</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2001215943</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2001215975</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2001215926</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2001215903</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2001215811</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2001215879</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2001215945</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2001215907</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2001215809</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2001215856</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2001215842</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2001215816</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2001215965</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2001215928</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2001215982</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2001215800</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>20</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2001215921</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/data/insert_data.xlsx
+++ b/data/insert_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEAMWORKING\Final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A4A5A-F60D-44EE-9B94-89F9170AAD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792AE409-5454-437B-9734-813421B4C089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D981FB0-44E2-41B7-9F67-DB59F3D45F24}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
